--- a/01_Linear/Quiz_Network_02_key.xlsx
+++ b/01_Linear/Quiz_Network_02_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D802A-90E1-2746-80B3-049D88DB65D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E7A08-37EC-5646-BCB3-B37A57C08C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="540" windowWidth="32160" windowHeight="17960" activeTab="4" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
+    <workbookView xWindow="2880" yWindow="-20600" windowWidth="32160" windowHeight="17960" activeTab="2" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="3" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Email</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>Fishcamp - Utopia  $4</t>
+  </si>
+  <si>
+    <t>Boulder-Clyde</t>
+  </si>
+  <si>
+    <t>Fishcamp-Utopia</t>
   </si>
 </sst>
 </file>
@@ -1766,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742063B9-162C-C642-ACCD-7DD326B86D37}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2016,13 +2022,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="8">
-        <v>99</v>
-      </c>
-      <c r="C15" s="8">
+        <v>999</v>
+      </c>
+      <c r="C15" s="11">
         <v>17</v>
       </c>
       <c r="D15" s="8">
-        <v>99</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2030,12 +2036,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="8">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="C16" s="8">
-        <v>99</v>
-      </c>
-      <c r="D16" s="8">
+        <v>999</v>
+      </c>
+      <c r="D16" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
     </row>
@@ -2063,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD31DB3-82A6-994B-894E-B6BBB809F38D}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
